--- a/data/trans_dic/P38_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P38_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha vacunado de la gripe en la última campaña</t>
+          <t>Población que se ha vacunado de la gripe en la última campaña (tasa de respuesta: 99,58%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +579,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>M4</t>
+          <t>M5</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>M4</t>
-        </is>
-      </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>M4</t>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>22,13%</t>
+          <t>22,02%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>41,33%</t>
+          <t>21,24%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>28,56%</t>
+          <t>31,14%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>22,12%</t>
+          <t>31,52%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>48,1%</t>
+          <t>22,02%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>38,46%</t>
+          <t>24,23%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>22,12%</t>
+          <t>39,27%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>44,89%</t>
+          <t>36,61%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>33,76%</t>
+          <t>22,02%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>22,81%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>35,4%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>34,13%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,38; 26,14</t>
+          <t>18,66; 25,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>37,16; 45,77</t>
+          <t>18,0; 24,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,52; 32,24</t>
+          <t>26,41; 35,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,8; 25,35</t>
+          <t>27,88; 35,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>44,58; 52,01</t>
+          <t>18,88; 24,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>35,24; 43,76</t>
+          <t>21,33; 27,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>19,82; 24,73</t>
+          <t>35,21; 43,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>42,05; 47,78</t>
+          <t>32,87; 39,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>31,02; 36,94</t>
+          <t>19,82; 24,49</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>20,7; 25,2</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>32,36; 38,85</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>31,79; 36,88</t>
         </is>
       </c>
     </row>
@@ -747,42 +802,57 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>33,98%</t>
+          <t>16,6%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>23,58%</t>
+          <t>32,5%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,63%</t>
+          <t>29,22%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>39,63%</t>
+          <t>17,96%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>31,89%</t>
+          <t>22,09%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>15,73%</t>
+          <t>31,51%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>36,8%</t>
+          <t>32,29%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>27,73%</t>
+          <t>15,9%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>19,35%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>32,01%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>30,68%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,87; 17,19</t>
+          <t>10,74; 17,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>29,56; 39,26</t>
+          <t>13,2; 20,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,99; 28,09</t>
+          <t>27,66; 37,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,25; 21,67</t>
+          <t>23,14; 36,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>35,64; 44,01</t>
+          <t>14,81; 22,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,55; 35,93</t>
+          <t>18,81; 26,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,27; 18,31</t>
+          <t>27,02; 37,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33,74; 39,95</t>
+          <t>25,88; 40,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>24,81; 30,66</t>
+          <t>13,59; 18,73</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>16,99; 22,45</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>28,53; 35,48</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>26,12; 35,79</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>21,88%</t>
+          <t>19,35%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>33,97%</t>
+          <t>22,23%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>27,43%</t>
+          <t>26,34%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>25,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>44,86%</t>
+          <t>26,45%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>40,23%</t>
+          <t>29,2%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>23,86%</t>
+          <t>36,5%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>39,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>33,74%</t>
+          <t>22,84%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>25,7%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>31,34%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,24; 34,22</t>
+          <t>12,76; 27,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>26,27; 42,74</t>
+          <t>16,12; 29,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,02; 35,12</t>
+          <t>17,37; 37,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,69; 34,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>37,78; 52,43</t>
+          <t>19,53; 35,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>32,48; 48,39</t>
+          <t>21,92; 36,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,16; 30,07</t>
+          <t>27,92; 46,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>33,47; 44,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>28,47; 39,29</t>
+          <t>18,43; 29,07</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>20,83; 30,89</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>24,18; 38,45</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,78%</t>
+          <t>18,42%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>37,5%</t>
+          <t>19,51%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>26,42%</t>
+          <t>31,1%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,82%</t>
+          <t>30,95%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>44,52%</t>
+          <t>20,96%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>36,15%</t>
+          <t>23,98%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,83%</t>
+          <t>35,97%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>41,08%</t>
+          <t>35,67%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>31,4%</t>
+          <t>19,72%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>21,8%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>33,58%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>33,33%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,35; 21,58</t>
+          <t>16,09; 20,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>34,29; 40,39</t>
+          <t>17,36; 22,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23,99; 29,15</t>
+          <t>28,02; 34,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,57; 23,29</t>
+          <t>28,09; 34,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>41,95; 47,22</t>
+          <t>18,62; 23,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>33,72; 39,22</t>
+          <t>21,9; 26,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,12; 21,54</t>
+          <t>32,95; 39,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>39,23; 43,3</t>
+          <t>32,75; 38,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>29,35; 33,41</t>
+          <t>18,2; 21,47</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>20,19; 23,65</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>31,21; 35,82</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>30,82; 35,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha vacunado de la gripe en la última campaña (tasa de respuesta: 99,58%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>219.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>213.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>294.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>276.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>336.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>377.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>513.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>361548</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>345969</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>504126</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>70462</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>397332</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>436473</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>700334</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>86118</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>758879</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>782442</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1204461</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>156580</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>306350; 426503</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>293171; 402939</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>427567; 576894</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>62329; 79015</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>340751; 450597</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>384310; 490024</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>627821; 778180</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>77317; 93961</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>683123; 844161</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>710281; 864469</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1100835; 1321818</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>145825; 169185</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>216.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>265.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>188853</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>225603</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>447063</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>21274</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>248356</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>300694</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>429922</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>21258</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>437208</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>526297</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>876984</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>42532</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>146884; 236513</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>179331; 284397</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>380457; 515971</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>16846; 26649</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>204726; 309578</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>256060; 353935</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>368715; 511535</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>17041; 26499</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>373669; 515061</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>462267; 610670</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>781802; 972252</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>36204; 49610</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>81812</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>91906</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>111361</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>108394</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>119585</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>149397</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>190206</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>211491</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>260758</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>53944; 117029</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>66637; 123153</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>73434; 158878</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>80019; 143741</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>89771; 149453</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>114291; 189945</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>153422; 242082</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>171469; 254229</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>201203; 319964</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>224.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>324.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>291.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>265.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>367.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>391.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>359.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>489.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>634.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>715.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>650.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>632212</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>663477</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1062551</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>91735</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>754082</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>856753</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1279653</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>107377</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1386293</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1520230</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>2342203</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>199112</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>552039; 717148</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>590369; 751570</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>957535; 1183687</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>83240; 102586</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>669600; 836749</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>782198; 938129</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1171995; 1391653</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>98593; 116593</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1279527; 1508779</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1408143; 1649074</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>2176658; 2498394</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>184135; 210797</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
